--- a/src/test/resources/Documents/18081/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/18081/Actual/JobPlanning.xlsx
@@ -92,15 +92,21 @@
     <t>Text   4p</t>
   </si>
   <si>
+    <t>Digital Print F/B 4x4</t>
+  </si>
+  <si>
+    <t>HC NexPress 1-4c</t>
+  </si>
+  <si>
+    <t>2,008</t>
+  </si>
+  <si>
     <t>Pos Cut</t>
   </si>
   <si>
     <t>HC Digital Knife</t>
   </si>
   <si>
-    <t>2,008</t>
-  </si>
-  <si>
     <t>Proof Approval</t>
   </si>
   <si>
@@ -108,12 +114,6 @@
   </si>
   <si>
     <t>HC Proof  Approval</t>
-  </si>
-  <si>
-    <t>Digital Print F/B 4x4</t>
-  </si>
-  <si>
-    <t>HC NexPress 1-4c</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="52">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="53">
         <v>30</v>
@@ -779,13 +779,13 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="56">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="57">
         <v>32</v>
-      </c>
-      <c r="C6" t="s" s="56">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="57">
-        <v>33</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -812,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
